--- a/cea/databases/WB/archetypes/use_types/USE_TYPE_PROPERTIES.xlsx
+++ b/cea/databases/WB/archetypes/use_types/USE_TYPE_PROPERTIES.xlsx
@@ -1,24 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\CityEnergyAnalyst\CityEnergyAnalyst\cea\databases\SG\archetypes\use_types\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justi\Documents\CityEnergyAnalyst\CityEnergyAnalyst\cea\databases\WB\archetypes\use_types\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59CE360-18BD-4E46-A554-A9E2E14A7866}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="470" windowWidth="38400" windowHeight="19610" tabRatio="785" activeTab="1"/>
+    <workbookView xWindow="4725" yWindow="3195" windowWidth="21600" windowHeight="11835" tabRatio="785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDOOR_COMFORT" sheetId="6" r:id="rId1"/>
     <sheet name="INTERNAL_LOADS" sheetId="7" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -153,7 +163,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -674,7 +684,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -698,6 +708,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1019,25 +1033,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.81640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.1796875" style="1"/>
+    <col min="6" max="6" width="9.7109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>38</v>
       </c>
@@ -1063,181 +1077,187 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="2">
+        <v>26</v>
+      </c>
+      <c r="C2" s="9">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2">
         <v>28</v>
       </c>
-      <c r="C2" s="4">
-        <v>10</v>
-      </c>
-      <c r="D2" s="7">
-        <v>27</v>
-      </c>
-      <c r="E2" s="4">
-        <v>10</v>
+      <c r="E2" s="9">
+        <v>18</v>
       </c>
       <c r="F2" s="4">
-        <v>10</v>
+        <f>30/3.6</f>
+        <v>8.3333333333333339</v>
       </c>
       <c r="G2" s="4">
         <v>30</v>
       </c>
       <c r="H2" s="4">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="7">
-        <v>28</v>
-      </c>
-      <c r="C3" s="4">
-        <v>10</v>
-      </c>
-      <c r="D3" s="7">
-        <v>27</v>
-      </c>
-      <c r="E3" s="4">
-        <v>10</v>
+      <c r="B3" s="2">
+        <v>24</v>
+      </c>
+      <c r="C3" s="9">
+        <v>22</v>
+      </c>
+      <c r="D3" s="2">
+        <v>26</v>
+      </c>
+      <c r="E3" s="9">
+        <v>18</v>
       </c>
       <c r="F3" s="4">
-        <v>10</v>
+        <f>30/3.6</f>
+        <v>8.3333333333333339</v>
       </c>
       <c r="G3" s="4">
         <v>30</v>
       </c>
       <c r="H3" s="4">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="7">
-        <v>24</v>
-      </c>
-      <c r="C4" s="4">
+      <c r="B4" s="2">
+        <v>26</v>
+      </c>
+      <c r="C4" s="9">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2">
+        <v>28</v>
+      </c>
+      <c r="E4" s="9">
+        <v>21</v>
+      </c>
+      <c r="F4" s="4">
+        <f>36/3.6</f>
         <v>10</v>
       </c>
-      <c r="D4" s="7">
-        <v>24</v>
-      </c>
-      <c r="E4" s="4">
-        <v>10</v>
-      </c>
-      <c r="F4" s="4">
-        <v>10</v>
-      </c>
       <c r="G4" s="4">
         <v>30</v>
       </c>
       <c r="H4" s="4">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="2">
         <v>24</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="9">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2">
+        <v>26</v>
+      </c>
+      <c r="E5" s="9">
+        <v>18</v>
+      </c>
+      <c r="F5" s="4">
+        <f>36/3.6</f>
         <v>10</v>
       </c>
-      <c r="D5" s="2">
-        <v>37</v>
-      </c>
-      <c r="E5" s="4">
-        <v>10</v>
-      </c>
-      <c r="F5" s="4">
-        <v>10</v>
-      </c>
       <c r="G5" s="4">
         <v>30</v>
       </c>
       <c r="H5" s="4">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="2">
         <v>24</v>
       </c>
-      <c r="C6" s="4">
-        <v>10</v>
+      <c r="C6" s="9">
+        <v>22</v>
       </c>
       <c r="D6" s="2">
-        <v>37</v>
-      </c>
-      <c r="E6" s="4">
-        <v>10</v>
+        <v>26</v>
+      </c>
+      <c r="E6" s="9">
+        <v>18</v>
       </c>
       <c r="F6" s="4">
-        <v>8</v>
+        <f>30/3.6</f>
+        <v>8.3333333333333339</v>
       </c>
       <c r="G6" s="4">
         <v>30</v>
       </c>
       <c r="H6" s="4">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="2">
         <v>24</v>
       </c>
-      <c r="C7" s="4">
-        <v>10</v>
-      </c>
-      <c r="D7" s="7">
-        <v>24</v>
-      </c>
-      <c r="E7" s="4">
-        <v>10</v>
+      <c r="C7" s="9">
+        <v>22</v>
+      </c>
+      <c r="D7" s="2">
+        <v>26</v>
+      </c>
+      <c r="E7" s="9">
+        <v>18</v>
       </c>
       <c r="F7" s="4">
-        <v>10</v>
+        <f>30/3.6</f>
+        <v>8.3333333333333339</v>
       </c>
       <c r="G7" s="4">
         <v>30</v>
       </c>
       <c r="H7" s="4">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="7">
-        <v>24</v>
-      </c>
-      <c r="C8" s="4">
+      <c r="B8" s="2">
+        <v>26</v>
+      </c>
+      <c r="C8" s="9">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2">
+        <v>28</v>
+      </c>
+      <c r="E8" s="9">
+        <v>12</v>
+      </c>
+      <c r="F8" s="4">
+        <f>36/3.6</f>
         <v>10</v>
-      </c>
-      <c r="D8" s="2">
-        <v>37</v>
-      </c>
-      <c r="E8" s="4">
-        <v>10</v>
-      </c>
-      <c r="F8" s="4">
-        <f t="shared" ref="F8" si="0">111*0.15+10*0.85</f>
-        <v>25.15</v>
       </c>
       <c r="G8" s="4">
         <v>30</v>
@@ -1246,24 +1266,25 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="7">
-        <v>24</v>
-      </c>
-      <c r="C9" s="4">
-        <v>10</v>
+      <c r="B9" s="2">
+        <v>30</v>
+      </c>
+      <c r="C9" s="9">
+        <v>18</v>
       </c>
       <c r="D9" s="2">
-        <v>37</v>
-      </c>
-      <c r="E9" s="4">
-        <v>10</v>
+        <v>32</v>
+      </c>
+      <c r="E9" s="9">
+        <v>12</v>
       </c>
       <c r="F9" s="4">
-        <v>31</v>
+        <f>10*15/3.6</f>
+        <v>41.666666666666664</v>
       </c>
       <c r="G9" s="4">
         <v>30</v>
@@ -1272,76 +1293,79 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="7">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2">
         <v>24</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="9">
+        <v>22</v>
+      </c>
+      <c r="D10" s="2">
+        <v>26</v>
+      </c>
+      <c r="E10" s="9">
+        <v>18</v>
+      </c>
+      <c r="F10" s="4">
+        <f>25/3.6</f>
+        <v>6.9444444444444446</v>
+      </c>
+      <c r="G10" s="4">
+        <v>30</v>
+      </c>
+      <c r="H10" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="2">
+        <v>26</v>
+      </c>
+      <c r="C11" s="9">
+        <v>22</v>
+      </c>
+      <c r="D11" s="2">
+        <v>28</v>
+      </c>
+      <c r="E11" s="9">
+        <v>21</v>
+      </c>
+      <c r="F11" s="4">
+        <f>36*1000/3600</f>
         <v>10</v>
       </c>
-      <c r="D10" s="2">
-        <v>37</v>
-      </c>
-      <c r="E10" s="4">
-        <v>10</v>
-      </c>
-      <c r="F10" s="4">
-        <v>10</v>
-      </c>
-      <c r="G10" s="4">
-        <v>30</v>
-      </c>
-      <c r="H10" s="4">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
+      <c r="G11" s="4">
+        <v>30</v>
+      </c>
+      <c r="H11" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="2">
+        <v>26</v>
+      </c>
+      <c r="C12" s="9">
+        <v>18</v>
+      </c>
+      <c r="D12" s="2">
+        <v>28</v>
+      </c>
+      <c r="E12" s="9">
         <v>12</v>
       </c>
-      <c r="B11" s="7">
-        <v>24</v>
-      </c>
-      <c r="C11" s="4">
-        <v>10</v>
-      </c>
-      <c r="D11" s="2">
-        <v>37</v>
-      </c>
-      <c r="E11" s="4">
-        <v>10</v>
-      </c>
-      <c r="F11" s="4">
-        <v>8</v>
-      </c>
-      <c r="G11" s="4">
-        <v>30</v>
-      </c>
-      <c r="H11" s="4">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="7">
-        <v>24</v>
-      </c>
-      <c r="C12" s="4">
-        <v>10</v>
-      </c>
-      <c r="D12" s="7">
-        <v>24</v>
-      </c>
-      <c r="E12" s="4">
-        <v>10</v>
-      </c>
       <c r="F12" s="4">
-        <v>10</v>
+        <f>9*10/3.6</f>
+        <v>25</v>
       </c>
       <c r="G12" s="4">
         <v>30</v>
@@ -1350,23 +1374,24 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="7">
+        <v>15</v>
+      </c>
+      <c r="B13" s="2">
+        <v>30</v>
+      </c>
+      <c r="C13" s="9">
         <v>24</v>
       </c>
-      <c r="C13" s="4">
-        <v>10</v>
-      </c>
       <c r="D13" s="2">
-        <v>37</v>
-      </c>
-      <c r="E13" s="4">
-        <v>10</v>
+        <v>32</v>
+      </c>
+      <c r="E13" s="9">
+        <v>12</v>
       </c>
       <c r="F13" s="4">
+        <f>3.6*10/3.6</f>
         <v>10</v>
       </c>
       <c r="G13" s="4">
@@ -1376,21 +1401,21 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="7">
-        <v>50</v>
-      </c>
-      <c r="C14" s="4">
-        <v>10</v>
-      </c>
-      <c r="D14" s="4">
-        <v>50</v>
-      </c>
-      <c r="E14" s="4">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="B14" s="2">
+        <v>26</v>
+      </c>
+      <c r="C14" s="9">
+        <v>18</v>
+      </c>
+      <c r="D14" s="2">
+        <v>28</v>
+      </c>
+      <c r="E14" s="9">
+        <v>12</v>
       </c>
       <c r="F14" s="4">
         <v>36</v>
@@ -1399,27 +1424,27 @@
         <v>30</v>
       </c>
       <c r="H14" s="4">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="7">
-        <v>24</v>
-      </c>
-      <c r="C15" s="4">
-        <v>10</v>
-      </c>
-      <c r="D15" s="7">
-        <v>24</v>
-      </c>
-      <c r="E15" s="4">
-        <v>10</v>
+        <v>17</v>
+      </c>
+      <c r="B15" s="2">
+        <v>28</v>
+      </c>
+      <c r="C15" s="9">
+        <v>18</v>
+      </c>
+      <c r="D15" s="2">
+        <v>28</v>
+      </c>
+      <c r="E15" s="9">
+        <v>12</v>
       </c>
       <c r="F15" s="4">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G15" s="4">
         <v>30</v>
@@ -1428,21 +1453,21 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="7">
-        <v>50</v>
-      </c>
-      <c r="C16" s="4">
-        <v>10</v>
-      </c>
-      <c r="D16" s="4">
-        <v>50</v>
-      </c>
-      <c r="E16" s="4">
-        <v>10</v>
+        <v>18</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2</v>
+      </c>
+      <c r="C16" s="9">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2</v>
+      </c>
+      <c r="E16" s="9">
+        <v>-18</v>
       </c>
       <c r="F16" s="4">
         <v>0</v>
@@ -1454,109 +1479,112 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="2">
+        <v>26</v>
+      </c>
+      <c r="C17" s="9">
+        <v>21</v>
+      </c>
+      <c r="D17" s="2">
+        <v>28</v>
+      </c>
+      <c r="E17" s="9">
+        <v>12</v>
+      </c>
+      <c r="F17" s="4">
+        <f>20*15/3.6</f>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="G17" s="4">
+        <v>30</v>
+      </c>
+      <c r="H17" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="2">
+        <v>26</v>
+      </c>
+      <c r="C18" s="9">
+        <v>21</v>
+      </c>
+      <c r="D18" s="2">
+        <v>28</v>
+      </c>
+      <c r="E18" s="9">
+        <v>12</v>
+      </c>
+      <c r="F18" s="4">
+        <f>36/3.6</f>
+        <v>10</v>
+      </c>
+      <c r="G18" s="4">
+        <v>30</v>
+      </c>
+      <c r="H18" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="2">
+        <v>24</v>
+      </c>
+      <c r="C19" s="9">
+        <v>22</v>
+      </c>
+      <c r="D19" s="2">
+        <v>26</v>
+      </c>
+      <c r="E19" s="9">
         <v>18</v>
       </c>
-      <c r="B17" s="7">
-        <v>-5</v>
-      </c>
-      <c r="C17" s="4">
+      <c r="F19" s="4">
+        <f>36/3.6</f>
         <v>10</v>
       </c>
-      <c r="D17" s="7">
-        <v>-5</v>
-      </c>
-      <c r="E17" s="4">
-        <v>10</v>
-      </c>
-      <c r="F17" s="4">
-        <v>0</v>
-      </c>
-      <c r="G17" s="4">
-        <v>30</v>
-      </c>
-      <c r="H17" s="4">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="7">
-        <v>24</v>
-      </c>
-      <c r="C18" s="4">
-        <v>10</v>
-      </c>
-      <c r="D18" s="2">
-        <v>37</v>
-      </c>
-      <c r="E18" s="4">
-        <v>10</v>
-      </c>
-      <c r="F18" s="4">
-        <f>F9</f>
-        <v>31</v>
-      </c>
-      <c r="G18" s="4">
-        <v>30</v>
-      </c>
-      <c r="H18" s="4">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="7">
-        <v>24</v>
-      </c>
-      <c r="C19" s="4">
-        <v>10</v>
-      </c>
-      <c r="D19" s="2">
-        <v>37</v>
-      </c>
-      <c r="E19" s="4">
-        <v>10</v>
-      </c>
-      <c r="F19" s="4">
-        <v>10</v>
-      </c>
       <c r="G19" s="4">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H19" s="4">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="7">
-        <v>24</v>
-      </c>
-      <c r="C20" s="4">
-        <v>10</v>
+        <v>27</v>
+      </c>
+      <c r="B20" s="2">
+        <v>26</v>
+      </c>
+      <c r="C20" s="9">
+        <v>21</v>
       </c>
       <c r="D20" s="2">
-        <v>37</v>
-      </c>
-      <c r="E20" s="4">
-        <v>10</v>
+        <v>28</v>
+      </c>
+      <c r="E20" s="9">
+        <v>12</v>
       </c>
       <c r="F20" s="4">
-        <v>10</v>
+        <f>30/3.6</f>
+        <v>8.3333333333333339</v>
       </c>
       <c r="G20" s="4">
         <v>30</v>
       </c>
       <c r="H20" s="4">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1566,29 +1594,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.26953125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.26953125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1796875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7265625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="13" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>38</v>
       </c>
@@ -1632,12 +1662,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="7">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C2" s="7">
         <v>70</v>
@@ -1646,10 +1676,10 @@
         <v>80</v>
       </c>
       <c r="E2" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F2" s="7">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="G2" s="4">
         <v>0</v>
@@ -1658,10 +1688,10 @@
         <v>0</v>
       </c>
       <c r="I2" s="7">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J2" s="7">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="K2" s="4">
         <v>0</v>
@@ -1676,12 +1706,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="7">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C3" s="4">
         <v>70</v>
@@ -1690,10 +1720,10 @@
         <v>80</v>
       </c>
       <c r="E3" s="4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F3" s="4">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -1705,7 +1735,7 @@
         <v>40</v>
       </c>
       <c r="J3" s="7">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="K3" s="4">
         <v>0</v>
@@ -1720,12 +1750,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="7">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C4" s="7">
         <v>70</v>
@@ -1734,10 +1764,10 @@
         <v>80</v>
       </c>
       <c r="E4" s="7">
-        <v>4.3</v>
+        <v>8</v>
       </c>
       <c r="F4" s="7">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -1749,7 +1779,7 @@
         <v>40</v>
       </c>
       <c r="J4" s="7">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="K4" s="4">
         <v>0</v>
@@ -1764,12 +1794,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="7">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C5" s="7">
         <v>70</v>
@@ -1778,10 +1808,10 @@
         <v>80</v>
       </c>
       <c r="E5" s="7">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F5" s="7">
-        <v>10</v>
+        <v>15.9</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -1790,10 +1820,10 @@
         <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J5" s="7">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="K5" s="4">
         <v>0</v>
@@ -1808,23 +1838,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6" s="7">
         <v>70</v>
       </c>
       <c r="D6" s="7">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E6" s="7">
         <v>2</v>
       </c>
       <c r="F6" s="7">
+        <f>9.3+24</f>
         <v>33.299999999999997</v>
       </c>
       <c r="G6" s="7">
@@ -1837,7 +1868,7 @@
         <v>2</v>
       </c>
       <c r="J6" s="7">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="K6" s="4">
         <v>0</v>
@@ -1852,12 +1883,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C7" s="7">
         <v>70</v>
@@ -1866,10 +1897,11 @@
         <v>80</v>
       </c>
       <c r="E7" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F7" s="7">
-        <v>9.3000000000000007</v>
+        <f>9.3+12</f>
+        <v>21.3</v>
       </c>
       <c r="G7" s="7">
         <v>0</v>
@@ -1881,10 +1913,10 @@
         <v>2</v>
       </c>
       <c r="J7" s="7">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="K7" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L7" s="4">
         <v>0</v>
@@ -1896,24 +1928,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="7">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="C8" s="7">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D8" s="7">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E8" s="7">
-        <v>31.7</v>
+        <v>2</v>
       </c>
       <c r="F8" s="7">
-        <v>8.25</v>
+        <v>6.9</v>
       </c>
       <c r="G8" s="7">
         <v>0</v>
@@ -1922,10 +1954,10 @@
         <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J8" s="7">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="K8" s="4">
         <v>0</v>
@@ -1940,12 +1972,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="7">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C9" s="7">
         <v>90</v>
@@ -1954,10 +1986,10 @@
         <v>170</v>
       </c>
       <c r="E9" s="7">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F9" s="7">
-        <v>14.7</v>
+        <v>10.8</v>
       </c>
       <c r="G9" s="7">
         <v>16.5</v>
@@ -1966,16 +1998,16 @@
         <v>0</v>
       </c>
       <c r="I9" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J9" s="7">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="K9" s="4">
         <v>0</v>
       </c>
       <c r="L9" s="4">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="M9" s="4">
         <v>0</v>
@@ -1984,12 +2016,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B10" s="7">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C10" s="7">
         <v>70</v>
@@ -1998,10 +2030,10 @@
         <v>80</v>
       </c>
       <c r="E10" s="7">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F10" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G10" s="7">
         <v>0</v>
@@ -2010,10 +2042,10 @@
         <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J10" s="7">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K10" s="4">
         <v>0</v>
@@ -2028,12 +2060,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" s="7">
-        <v>4</v>
+        <f>15*0.43+3*0.01+5*0.56</f>
+        <v>9.2800000000000011</v>
       </c>
       <c r="C11" s="7">
         <v>70</v>
@@ -2042,29 +2075,33 @@
         <v>80</v>
       </c>
       <c r="E11" s="7">
+        <f>0.43*4+0.01*7+0.56*20</f>
+        <v>12.990000000000002</v>
+      </c>
+      <c r="F11" s="7">
+        <f>0.43*4.5+0.01*15.9+0.56*15.9</f>
+        <v>10.998000000000001</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <f>0.43*60+0.01*0+0.56*0</f>
+        <v>25.8</v>
+      </c>
+      <c r="J11" s="7">
+        <f>I11*4</f>
+        <v>103.2</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0</v>
+      </c>
+      <c r="L11" s="4">
         <v>16</v>
       </c>
-      <c r="F11" s="7">
-        <v>12</v>
-      </c>
-      <c r="G11" s="7">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7">
-        <v>4</v>
-      </c>
-      <c r="K11" s="4">
-        <v>0</v>
-      </c>
-      <c r="L11" s="4">
-        <v>0</v>
-      </c>
       <c r="M11" s="4">
         <v>0</v>
       </c>
@@ -2072,68 +2109,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" s="7">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C12" s="7">
+        <v>120</v>
+      </c>
+      <c r="D12" s="7">
+        <v>280</v>
+      </c>
+      <c r="E12" s="7">
+        <v>2</v>
+      </c>
+      <c r="F12" s="7">
+        <v>9.9</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>60</v>
+      </c>
+      <c r="J12" s="7">
+        <v>180</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4">
+        <v>0</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="7">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7">
         <v>70</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D13" s="7">
         <v>80</v>
-      </c>
-      <c r="E12" s="7">
-        <v>8</v>
-      </c>
-      <c r="F12" s="7">
-        <v>11</v>
-      </c>
-      <c r="G12" s="7">
-        <v>0</v>
-      </c>
-      <c r="H12" s="4">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7">
-        <v>80</v>
-      </c>
-      <c r="K12" s="4">
-        <v>0</v>
-      </c>
-      <c r="L12" s="4">
-        <v>0</v>
-      </c>
-      <c r="M12" s="4">
-        <v>0</v>
-      </c>
-      <c r="N12" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="7">
-        <v>9</v>
-      </c>
-      <c r="C13" s="7">
-        <v>110</v>
-      </c>
-      <c r="D13" s="7">
-        <v>255</v>
       </c>
       <c r="E13" s="7">
         <v>2</v>
       </c>
       <c r="F13" s="7">
-        <v>9.9</v>
+        <v>11.3</v>
       </c>
       <c r="G13" s="7">
         <v>0</v>
@@ -2142,10 +2179,10 @@
         <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="J13" s="7">
-        <v>80</v>
+        <v>360</v>
       </c>
       <c r="K13" s="4">
         <v>0</v>
@@ -2160,215 +2197,215 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" s="7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C14" s="7">
         <v>70</v>
       </c>
       <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7">
+        <v>6.6</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0</v>
+      </c>
+      <c r="H14" s="7">
+        <v>100</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="7">
+        <v>0</v>
+      </c>
+      <c r="C15" s="7">
+        <v>35</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0</v>
+      </c>
+      <c r="E15" s="7">
+        <v>1</v>
+      </c>
+      <c r="F15" s="7">
+        <v>2.9</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0</v>
+      </c>
+      <c r="J15" s="7">
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0</v>
+      </c>
+      <c r="M15" s="4">
+        <v>0</v>
+      </c>
+      <c r="N15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="7">
+        <v>0</v>
+      </c>
+      <c r="C16" s="7">
+        <v>70</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0</v>
+      </c>
+      <c r="F16" s="7">
+        <v>5.7</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7">
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
+        <v>100</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0</v>
+      </c>
+      <c r="N16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="7">
+        <v>15</v>
+      </c>
+      <c r="C17" s="7">
+        <f>C11</f>
+        <v>70</v>
+      </c>
+      <c r="D17" s="7">
+        <f>D11</f>
         <v>80</v>
       </c>
-      <c r="E14" s="7">
-        <v>2</v>
-      </c>
-      <c r="F14" s="7">
-        <v>11.3</v>
-      </c>
-      <c r="G14" s="7">
-        <v>0</v>
-      </c>
-      <c r="H14" s="4">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7">
-        <v>360</v>
-      </c>
-      <c r="K14" s="4">
-        <v>0</v>
-      </c>
-      <c r="L14" s="4">
-        <v>0</v>
-      </c>
-      <c r="M14" s="4">
-        <v>0</v>
-      </c>
-      <c r="N14" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="7">
-        <v>0</v>
-      </c>
-      <c r="C15" s="7">
-        <v>0</v>
-      </c>
-      <c r="D15" s="7">
-        <v>0</v>
-      </c>
-      <c r="E15" s="8">
-        <v>0</v>
-      </c>
-      <c r="F15" s="7">
-        <v>7.1</v>
-      </c>
-      <c r="G15" s="7">
-        <v>0</v>
-      </c>
-      <c r="H15" s="7">
-        <v>500</v>
-      </c>
-      <c r="I15" s="7">
-        <v>0</v>
-      </c>
-      <c r="J15" s="7">
-        <v>0</v>
-      </c>
-      <c r="K15" s="4">
-        <v>0</v>
-      </c>
-      <c r="L15" s="4">
-        <v>0</v>
-      </c>
-      <c r="M15" s="4">
-        <v>0</v>
-      </c>
-      <c r="N15" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="7">
-        <v>0</v>
-      </c>
-      <c r="C16" s="7">
-        <v>0</v>
-      </c>
-      <c r="D16" s="7">
-        <v>0</v>
-      </c>
-      <c r="E16" s="7">
-        <v>0</v>
-      </c>
-      <c r="F16" s="7">
-        <v>5</v>
-      </c>
-      <c r="G16" s="7">
-        <v>0</v>
-      </c>
-      <c r="H16" s="4">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7">
-        <v>0</v>
-      </c>
-      <c r="K16" s="4">
-        <v>0</v>
-      </c>
-      <c r="L16" s="4">
-        <v>0</v>
-      </c>
-      <c r="M16" s="4">
-        <v>0</v>
-      </c>
-      <c r="N16" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="7">
-        <v>0</v>
-      </c>
-      <c r="C17" s="7">
-        <v>0</v>
-      </c>
-      <c r="D17" s="7">
-        <v>0</v>
-      </c>
       <c r="E17" s="7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F17" s="7">
-        <v>5.7</v>
+        <v>16.2</v>
       </c>
       <c r="G17" s="7">
-        <v>0</v>
-      </c>
-      <c r="H17" s="4">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7">
-        <v>0</v>
-      </c>
-      <c r="K17" s="4">
-        <v>8</v>
-      </c>
-      <c r="L17" s="4">
-        <v>0</v>
-      </c>
-      <c r="M17" s="4">
-        <v>0</v>
-      </c>
-      <c r="N17" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="7">
-        <v>20</v>
-      </c>
-      <c r="C18" s="7">
-        <f>C12</f>
-        <v>70</v>
-      </c>
-      <c r="D18" s="7">
-        <f>D12</f>
-        <v>80</v>
-      </c>
-      <c r="E18" s="7">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7">
-        <v>12</v>
-      </c>
-      <c r="G18" s="7">
         <f>G9</f>
         <v>16.5</v>
       </c>
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>3</v>
+      </c>
+      <c r="J17" s="7">
+        <v>60</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0</v>
+      </c>
+      <c r="L17" s="4">
+        <v>0</v>
+      </c>
+      <c r="M17" s="4">
+        <v>0</v>
+      </c>
+      <c r="N17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="7">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
+        <v>70</v>
+      </c>
+      <c r="D18" s="7">
+        <v>80</v>
+      </c>
+      <c r="E18" s="7">
+        <v>7</v>
+      </c>
+      <c r="F18" s="7">
+        <v>10.8</v>
+      </c>
+      <c r="G18" s="7">
+        <v>0</v>
+      </c>
       <c r="H18" s="4">
         <v>0</v>
       </c>
       <c r="I18" s="7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J18" s="7">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K18" s="4">
         <v>0</v>
@@ -2383,12 +2420,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C19" s="7">
         <v>70</v>
@@ -2397,10 +2434,10 @@
         <v>80</v>
       </c>
       <c r="E19" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F19" s="7">
-        <v>10.8</v>
+        <v>6.9</v>
       </c>
       <c r="G19" s="7">
         <v>0</v>
@@ -2412,7 +2449,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K19" s="4">
         <v>0</v>
@@ -2427,12 +2464,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B20" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C20" s="7">
         <v>70</v>
@@ -2441,22 +2478,22 @@
         <v>80</v>
       </c>
       <c r="E20" s="7">
+        <v>4</v>
+      </c>
+      <c r="F20" s="7">
+        <v>12.5</v>
+      </c>
+      <c r="G20" s="7">
+        <v>0</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
         <v>2</v>
       </c>
-      <c r="F20" s="7">
-        <v>6.9</v>
-      </c>
-      <c r="G20" s="7">
-        <v>0</v>
-      </c>
-      <c r="H20" s="4">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
       <c r="J20" s="7">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="K20" s="4">
         <v>0</v>
